--- a/Assignment 4/Villa.xlsx
+++ b/Assignment 4/Villa.xlsx
@@ -466,7 +466,7 @@
     <t>Delivery</t>
   </si>
   <si>
-    <t>(1,1,1)</t>
+    <t>(1, 1, 1)</t>
   </si>
   <si>
     <t>Completion</t>
